--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_6.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_6.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9262505262166297</v>
+        <v>0.8431845794268173</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7177311018879935</v>
+        <v>0.6003924828742426</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7749660572392396</v>
+        <v>0.7136914589964116</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7958775956091322</v>
+        <v>0.5949451694683945</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3069841535006428</v>
+        <v>0.3716827549212627</v>
       </c>
       <c r="G2" t="n">
-        <v>1.887533421403752</v>
+        <v>2.672177307043365</v>
       </c>
       <c r="H2" t="n">
-        <v>0.804933365037535</v>
+        <v>1.024109050046787</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6118229988366506</v>
+        <v>0.5749883806147639</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9918422942727235</v>
+        <v>1.018570102118711</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5540615069652852</v>
+        <v>0.6096578999088446</v>
       </c>
       <c r="L2" t="n">
-        <v>5.719966322135697</v>
+        <v>0.7864641081556661</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5627874218416781</v>
+        <v>0.619259402398095</v>
       </c>
       <c r="N2" t="n">
-        <v>132.3619182999778</v>
+        <v>35.97942919581841</v>
       </c>
       <c r="O2" t="n">
-        <v>273.6970908431942</v>
+        <v>72.94401278404423</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.926349865942014</v>
+        <v>0.8429300987719206</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7171336844884901</v>
+        <v>0.600063170747986</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7746039958824915</v>
+        <v>0.7135656796801502</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8027655883762657</v>
+        <v>0.5959938004076722</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3065706492416752</v>
+        <v>0.3722859230952885</v>
       </c>
       <c r="G3" t="n">
-        <v>1.891528354305086</v>
+        <v>2.674379418747986</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8062284375170992</v>
+        <v>1.024558955367951</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5911773847340305</v>
+        <v>0.5734998152152436</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9792630653319793</v>
+        <v>1.022878641450561</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5536882238603916</v>
+        <v>0.6101523769479952</v>
       </c>
       <c r="L3" t="n">
-        <v>5.713608579711106</v>
+        <v>0.786117581306445</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5624082599010286</v>
+        <v>0.6197616669563165</v>
       </c>
       <c r="N3" t="n">
-        <v>132.3646140938644</v>
+        <v>35.97618621893509</v>
       </c>
       <c r="O3" t="n">
-        <v>273.6997866370808</v>
+        <v>72.9407698071609</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9267520954333643</v>
+        <v>0.8426789607951675</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7164526900607031</v>
+        <v>0.5997357658467767</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7741406686864511</v>
+        <v>0.7134402272243346</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8119316473070555</v>
+        <v>0.5970631599761494</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3048963582456756</v>
+        <v>0.3728811684781964</v>
       </c>
       <c r="G4" t="n">
-        <v>1.896082167179388</v>
+        <v>2.676568776829934</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8078857320320809</v>
+        <v>1.025007691528252</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5637036457327463</v>
+        <v>0.5719818248588106</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9596302101487574</v>
+        <v>1.026741064763274</v>
       </c>
       <c r="K4" t="n">
-        <v>0.552174210051208</v>
+        <v>0.6106399663289297</v>
       </c>
       <c r="L4" t="n">
-        <v>5.687865892264682</v>
+        <v>0.7857756061891642</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5608704018878089</v>
+        <v>0.6202569353825901</v>
       </c>
       <c r="N4" t="n">
-        <v>132.3755667383069</v>
+        <v>35.97299098653019</v>
       </c>
       <c r="O4" t="n">
-        <v>273.7107392815233</v>
+        <v>72.93757457475601</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9270080081076215</v>
+        <v>0.8424075598023482</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7160891214394204</v>
+        <v>0.599397948033068</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7743582739022832</v>
+        <v>0.7133060463637386</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8205952917801331</v>
+        <v>0.5981172029416424</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3038311149070221</v>
+        <v>0.3735244411125505</v>
       </c>
       <c r="G5" t="n">
-        <v>1.898513352223986</v>
+        <v>2.678827766105711</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8071073707925254</v>
+        <v>1.02548764868635</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5377358106085679</v>
+        <v>0.5704855769137317</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9514149747186614</v>
+        <v>1.031339415260974</v>
       </c>
       <c r="K5" t="n">
-        <v>0.551208776152033</v>
+        <v>0.6111664594139231</v>
       </c>
       <c r="L5" t="n">
-        <v>5.671487481112223</v>
+        <v>0.7854060388797932</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5598897633698018</v>
+        <v>0.6207917202073723</v>
       </c>
       <c r="N5" t="n">
-        <v>132.3825665500323</v>
+        <v>35.96954367699579</v>
       </c>
       <c r="O5" t="n">
-        <v>273.7177390932487</v>
+        <v>72.93412726522162</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9265296505540683</v>
+        <v>0.8424693207165064</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7153867053867641</v>
+        <v>0.5991453328444654</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7739757572993846</v>
+        <v>0.7133318901047814</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8239473996971381</v>
+        <v>0.600095704149611</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3058222909943193</v>
+        <v>0.3733780558486722</v>
       </c>
       <c r="G6" t="n">
-        <v>1.903210411602427</v>
+        <v>2.680517005035084</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8084756105015065</v>
+        <v>1.025395207123147</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5276884239714849</v>
+        <v>0.5676770307124157</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9484294448461769</v>
+        <v>1.017330426441093</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5530120170433183</v>
+        <v>0.6110466887633647</v>
       </c>
       <c r="L6" t="n">
-        <v>5.702102364539627</v>
+        <v>0.7854901388480087</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5617214035025451</v>
+        <v>0.6206700632887941</v>
       </c>
       <c r="N6" t="n">
-        <v>132.369502188228</v>
+        <v>35.9703276361677</v>
       </c>
       <c r="O6" t="n">
-        <v>273.7046747314444</v>
+        <v>72.93491122439352</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9264789333873973</v>
+        <v>0.8421903090336404</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7147841937356374</v>
+        <v>0.5988003004143234</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7738310828548245</v>
+        <v>0.7131947372371696</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8303284359952445</v>
+        <v>0.6011789458043337</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3060334025545751</v>
+        <v>0.3740393672845233</v>
       </c>
       <c r="G7" t="n">
-        <v>1.907239409787822</v>
+        <v>2.682824238484171</v>
       </c>
       <c r="H7" t="n">
-        <v>0.808993102600992</v>
+        <v>1.025885794978013</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5085623276703791</v>
+        <v>0.5661393342873515</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9339564249025268</v>
+        <v>1.021916980979621</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5532028584114286</v>
+        <v>0.611587579406681</v>
       </c>
       <c r="L7" t="n">
-        <v>5.705348263206574</v>
+        <v>0.7851102080458083</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5619152504314318</v>
+        <v>0.6212194724190505</v>
       </c>
       <c r="N7" t="n">
-        <v>132.3681220486241</v>
+        <v>35.96678845397604</v>
       </c>
       <c r="O7" t="n">
-        <v>273.7032945918405</v>
+        <v>72.93137204220186</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9266682053088916</v>
+        <v>0.841619336188737</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7141718738836785</v>
+        <v>0.5980998719020825</v>
       </c>
       <c r="D8" t="n">
-        <v>0.773651710642576</v>
+        <v>0.712915483843847</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8385012694413501</v>
+        <v>0.6033969998304796</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3052455531283941</v>
+        <v>0.3753926829163869</v>
       </c>
       <c r="G8" t="n">
-        <v>1.911333995457345</v>
+        <v>2.687508007170702</v>
       </c>
       <c r="H8" t="n">
-        <v>0.809634706603606</v>
+        <v>1.026884668173887</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4840656170671975</v>
+        <v>0.5629907351435373</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9184093960397516</v>
+        <v>1.030740991505195</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5524903194883999</v>
+        <v>0.612692976062552</v>
       </c>
       <c r="L8" t="n">
-        <v>5.693234860230937</v>
+        <v>0.7843327131080674</v>
       </c>
       <c r="M8" t="n">
-        <v>0.561191489732643</v>
+        <v>0.6223422779672602</v>
       </c>
       <c r="N8" t="n">
-        <v>132.3732774681268</v>
+        <v>35.95956529290359</v>
       </c>
       <c r="O8" t="n">
-        <v>273.7084500113432</v>
+        <v>72.92414888112941</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9263569161892721</v>
+        <v>0.8341680591267997</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7135483650228711</v>
+        <v>0.5891427139755236</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7734001216315562</v>
+        <v>0.7093431216782441</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8434070742400619</v>
+        <v>0.6328616751703109</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3065413023992438</v>
+        <v>0.3930536449310886</v>
       </c>
       <c r="G9" t="n">
-        <v>1.915503402080558</v>
+        <v>2.747404563469521</v>
       </c>
       <c r="H9" t="n">
-        <v>0.810534625908055</v>
+        <v>1.039662800502788</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4693612821236032</v>
+        <v>0.5211646793062215</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9104574397842747</v>
+        <v>1.101077344842273</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5536617219920876</v>
+        <v>0.6269399053586305</v>
       </c>
       <c r="L9" t="n">
-        <v>5.713157363886587</v>
+        <v>0.7741862932790464</v>
       </c>
       <c r="M9" t="n">
-        <v>0.562381340654791</v>
+        <v>0.6368135821580476</v>
       </c>
       <c r="N9" t="n">
-        <v>132.3648055554229</v>
+        <v>35.86761835066277</v>
       </c>
       <c r="O9" t="n">
-        <v>273.6999780986393</v>
+        <v>72.83220193888859</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9269022909250186</v>
+        <v>0.8336603899198686</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7128537412905631</v>
+        <v>0.5886396506359022</v>
       </c>
       <c r="D10" t="n">
-        <v>0.773628529097954</v>
+        <v>0.7090954854203113</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8618563233118581</v>
+        <v>0.6341348743247452</v>
       </c>
       <c r="F10" t="n">
-        <v>0.304271165501921</v>
+        <v>0.3942569187464517</v>
       </c>
       <c r="G10" t="n">
-        <v>1.92014835417695</v>
+        <v>2.750768550337964</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8097176256445759</v>
+        <v>1.040548581038639</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4140627227759665</v>
+        <v>0.5193573320909137</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8816092200146085</v>
+        <v>1.108608289502436</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5516078004360716</v>
+        <v>0.6278988125060053</v>
       </c>
       <c r="L10" t="n">
-        <v>5.678253380798807</v>
+        <v>0.773494999039821</v>
       </c>
       <c r="M10" t="n">
-        <v>0.560295071887436</v>
+        <v>0.6377875911344381</v>
       </c>
       <c r="N10" t="n">
-        <v>132.3796719667631</v>
+        <v>35.86150500831606</v>
       </c>
       <c r="O10" t="n">
-        <v>273.7148445099795</v>
+        <v>72.82608859654188</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9269518114991671</v>
+        <v>0.8268019259753061</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7123400018426609</v>
+        <v>0.5818890569339801</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7734698770496083</v>
+        <v>0.7057102364883518</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8696294025076733</v>
+        <v>0.6500760474148468</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3040650347899856</v>
+        <v>0.4105127994763283</v>
       </c>
       <c r="G11" t="n">
-        <v>1.923583732230625</v>
+        <v>2.795909801506343</v>
       </c>
       <c r="H11" t="n">
-        <v>0.810285114822334</v>
+        <v>1.052657420180247</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3907642091318114</v>
+        <v>0.4967283233511648</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8654353330271689</v>
+        <v>1.198122997598141</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5514209234241892</v>
+        <v>0.6407127277308672</v>
       </c>
       <c r="L11" t="n">
-        <v>5.675084064053308</v>
+        <v>0.7641558140940339</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5601052517494249</v>
+        <v>0.6508033127148757</v>
       </c>
       <c r="N11" t="n">
-        <v>132.381027340451</v>
+        <v>35.78069634073089</v>
       </c>
       <c r="O11" t="n">
-        <v>273.7161998836674</v>
+        <v>72.74527992895672</v>
       </c>
     </row>
   </sheetData>
